--- a/AlcoholCenters/Alabama Alcohol Treatment.xlsx
+++ b/AlcoholCenters/Alabama Alcohol Treatment.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e077738/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/e077738/dev/Alexa-Skills/AddictionHelpFinder/AlcoholCenters/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="12160" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="3880" yWindow="1940" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Facilities with service detail" sheetId="1" r:id="rId1"/>
     <sheet name="service code reference" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Facilities with service detail'!$A$1:$X$118</definedName>
+  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="1310">
   <si>
     <t xml:space="preserve">  category_code</t>
   </si>
@@ -3955,6 +3958,9 @@
   </si>
   <si>
     <t>Alabama</t>
+  </si>
+  <si>
+    <t>LIST</t>
   </si>
 </sst>
 </file>
@@ -3971,35 +3977,41 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4015,6 +4027,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
@@ -4106,7 +4124,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4158,8 +4176,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -4168,8 +4202,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4195,6 +4231,14 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4220,6 +4264,14 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4497,8 +4549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4569,16 +4621,18 @@
       <c r="T1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="8" t="s">
         <v>1305</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="8" t="s">
         <v>1306</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="8" t="s">
         <v>1307</v>
       </c>
-      <c r="X1" s="3"/>
+      <c r="X1" s="9" t="s">
+        <v>1309</v>
+      </c>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="4"/>
@@ -4704,11 +4758,11 @@
       </c>
       <c r="U2">
         <f ca="1">RAND()</f>
-        <v>0.70700401580677563</v>
+        <v>0.99304913654279403</v>
       </c>
       <c r="V2" t="str">
         <f ca="1">CONCATENATE(E2,":",F2,":",U2)</f>
-        <v>Alabaster:Alabama:0.707004015806776</v>
+        <v>Alabaster:Alabama:0.993049136542794</v>
       </c>
       <c r="W2" t="str">
         <f>CONCATENATE(A2,":",B2,":",C2,":",D2,":",E2,":",F2,":",G2,":",H2,":",I2,":",J2,":",R2,":",S2,":",T2)</f>
@@ -4761,11 +4815,11 @@
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U66" ca="1" si="0">RAND()</f>
-        <v>0.30354486671292946</v>
+        <v>0.25053578050736169</v>
       </c>
       <c r="V3" t="str">
         <f t="shared" ref="V3:V30" ca="1" si="1">CONCATENATE(E3,":",F3,":",U3)</f>
-        <v>Clanton:Alabama:0.303544866712929</v>
+        <v>Clanton:Alabama:0.250535780507362</v>
       </c>
       <c r="W3" t="str">
         <f t="shared" ref="W3:W66" si="2">CONCATENATE(A3,":",B3,":",C3,":",D3,":",E3,":",F3,":",G3,":",H3,":",I3,":",J3,":",R3,":",S3,":",T3)</f>
@@ -4824,11 +4878,11 @@
       </c>
       <c r="U4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34329106117594588</v>
+        <v>0.32997233060558195</v>
       </c>
       <c r="V4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Cullman:Alabama:0.343291061175946</v>
+        <v>Cullman:Alabama:0.329972330605582</v>
       </c>
       <c r="W4" t="str">
         <f t="shared" si="2"/>
@@ -4878,11 +4932,11 @@
       </c>
       <c r="U5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.69202620368947E-2</v>
+        <v>0.76600957287888083</v>
       </c>
       <c r="V5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Cullman:Alabama:0.0469202620368947</v>
+        <v>Cullman:Alabama:0.766009572878881</v>
       </c>
       <c r="W5" t="str">
         <f t="shared" si="2"/>
@@ -4935,11 +4989,11 @@
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3013632088417395</v>
+        <v>0.68828251230049176</v>
       </c>
       <c r="V6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Cullman:Alabama:0.30136320884174</v>
+        <v>Cullman:Alabama:0.688282512300492</v>
       </c>
       <c r="W6" t="str">
         <f t="shared" si="2"/>
@@ -4983,11 +5037,11 @@
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89409858333422088</v>
+        <v>0.35392364924197783</v>
       </c>
       <c r="V7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Cullman:Alabama:0.894098583334221</v>
+        <v>Cullman:Alabama:0.353923649241978</v>
       </c>
       <c r="W7" t="str">
         <f t="shared" si="2"/>
@@ -5037,11 +5091,11 @@
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74327396687530611</v>
+        <v>0.15861158902171135</v>
       </c>
       <c r="V8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Oneonta:Alabama:0.743273966875306</v>
+        <v>Oneonta:Alabama:0.158611589021711</v>
       </c>
       <c r="W8" t="str">
         <f t="shared" si="2"/>
@@ -5094,11 +5148,11 @@
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90117924576777164</v>
+        <v>0.80841988056055403</v>
       </c>
       <c r="V9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Warrior:Alabama:0.901179245767772</v>
+        <v>Warrior:Alabama:0.808419880560554</v>
       </c>
       <c r="W9" t="str">
         <f t="shared" si="2"/>
@@ -5163,11 +5217,11 @@
       </c>
       <c r="U10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36411333572868099</v>
+        <v>0.64018466943409302</v>
       </c>
       <c r="V10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Birmingham:Alabama:0.364113335728681</v>
+        <v>Birmingham:Alabama:0.640184669434093</v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="2"/>
@@ -5214,11 +5268,11 @@
       </c>
       <c r="U11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38748958910963971</v>
+        <v>0.72912334431335779</v>
       </c>
       <c r="V11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Birmingham:Alabama:0.38748958910964</v>
+        <v>Birmingham:Alabama:0.729123344313358</v>
       </c>
       <c r="W11" t="str">
         <f t="shared" si="2"/>
@@ -5274,11 +5328,11 @@
       </c>
       <c r="U12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23937288775719334</v>
+        <v>0.95905343480135929</v>
       </c>
       <c r="V12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Birmingham:Alabama:0.239372887757193</v>
+        <v>Birmingham:Alabama:0.959053434801359</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="2"/>
@@ -5340,11 +5394,11 @@
       </c>
       <c r="U13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53729030939923805</v>
+        <v>0.19489864158843306</v>
       </c>
       <c r="V13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Birmingham:Alabama:0.537290309399238</v>
+        <v>Birmingham:Alabama:0.194898641588433</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="2"/>
@@ -5383,21 +5437,24 @@
       <c r="O14" t="s">
         <v>533</v>
       </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
       <c r="U14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95562310005368378</v>
+        <v>0.25204594885614295</v>
       </c>
       <c r="V14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Tuscaloosa:Alabama:0.955623100053684</v>
+        <v>Tuscaloosa:Alabama:0.252045948856143</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" si="2"/>
-        <v>Tuscaloosa Treatment Center::1001 Mimosa Park Road::Tuscaloosa:Alabama:35405::Tuscaloosa:205-752-5857:::</v>
+        <v>Tuscaloosa Treatment Center::1001 Mimosa Park Road::Tuscaloosa:Alabama:35405::Tuscaloosa:205-752-5857:::0</v>
       </c>
       <c r="X14" t="str">
         <f t="shared" si="3"/>
-        <v>list.add("Tuscaloosa Treatment Center::1001 Mimosa Park Road::Tuscaloosa:Alabama:35405::Tuscaloosa:205-752-5857:::");</v>
+        <v>list.add("Tuscaloosa Treatment Center::1001 Mimosa Park Road::Tuscaloosa:Alabama:35405::Tuscaloosa:205-752-5857:::0");</v>
       </c>
     </row>
     <row r="15" spans="1:106" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5451,11 +5508,11 @@
       </c>
       <c r="U15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48775467659051308</v>
+        <v>0.80112417367278066</v>
       </c>
       <c r="V15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Jasper:Alabama:0.487754676590513</v>
+        <v>Jasper:Alabama:0.801124173672781</v>
       </c>
       <c r="W15" t="str">
         <f t="shared" si="2"/>
@@ -5502,11 +5559,11 @@
       </c>
       <c r="U16">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6888974429892936E-2</v>
+        <v>8.1145717290344588E-2</v>
       </c>
       <c r="V16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Jasper:Alabama:0.0568889744298929</v>
+        <v>Jasper:Alabama:0.0811457172903446</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="2"/>
@@ -5556,11 +5613,11 @@
       </c>
       <c r="U17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14804306111798737</v>
+        <v>0.15373479194200357</v>
       </c>
       <c r="V17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Fayette:Alabama:0.148043061117987</v>
+        <v>Fayette:Alabama:0.153734791942004</v>
       </c>
       <c r="W17" t="str">
         <f t="shared" si="2"/>
@@ -5610,11 +5667,11 @@
       </c>
       <c r="U18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8410689912635102</v>
+        <v>5.8194887936499962E-2</v>
       </c>
       <c r="V18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Fayette:Alabama:0.84106899126351</v>
+        <v>Fayette:Alabama:0.0581948879365</v>
       </c>
       <c r="W18" t="str">
         <f t="shared" si="2"/>
@@ -5661,11 +5718,11 @@
       </c>
       <c r="U19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23350032068289672</v>
+        <v>0.32638746255788309</v>
       </c>
       <c r="V19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Hamilton:Alabama:0.233500320682897</v>
+        <v>Hamilton:Alabama:0.326387462557883</v>
       </c>
       <c r="W19" t="str">
         <f t="shared" si="2"/>
@@ -5712,11 +5769,11 @@
       </c>
       <c r="U20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34977710191169387</v>
+        <v>0.83894276774701382</v>
       </c>
       <c r="V20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Vernon:Alabama:0.349777101911694</v>
+        <v>Vernon:Alabama:0.838942767747014</v>
       </c>
       <c r="W20" t="str">
         <f t="shared" si="2"/>
@@ -5769,11 +5826,11 @@
       </c>
       <c r="U21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64489970427749443</v>
+        <v>0.73297015979182689</v>
       </c>
       <c r="V21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Winfield:Alabama:0.644899704277494</v>
+        <v>Winfield:Alabama:0.732970159791827</v>
       </c>
       <c r="W21" t="str">
         <f t="shared" si="2"/>
@@ -5823,11 +5880,11 @@
       </c>
       <c r="U22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47609266252561755</v>
+        <v>0.99548754548476814</v>
       </c>
       <c r="V22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Winfield:Alabama:0.476092662525618</v>
+        <v>Winfield:Alabama:0.995487545484768</v>
       </c>
       <c r="W22" t="str">
         <f t="shared" si="2"/>
@@ -5892,11 +5949,11 @@
       </c>
       <c r="U23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62871704767472858</v>
+        <v>0.92140843183024934</v>
       </c>
       <c r="V23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Florence:Alabama:0.628717047674729</v>
+        <v>Florence:Alabama:0.921408431830249</v>
       </c>
       <c r="W23" t="str">
         <f t="shared" si="2"/>
@@ -5946,11 +6003,11 @@
       </c>
       <c r="U24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74313285950886609</v>
+        <v>0.82692423909668256</v>
       </c>
       <c r="V24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Florence:Alabama:0.743132859508866</v>
+        <v>Florence:Alabama:0.826924239096683</v>
       </c>
       <c r="W24" t="str">
         <f t="shared" si="2"/>
@@ -6006,11 +6063,11 @@
       </c>
       <c r="U25">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7081315031440574E-2</v>
+        <v>0.48841355205719583</v>
       </c>
       <c r="V25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Madison:Alabama:0.0970813150314406</v>
+        <v>Madison:Alabama:0.488413552057196</v>
       </c>
       <c r="W25" t="str">
         <f t="shared" si="2"/>
@@ -6069,11 +6126,11 @@
       </c>
       <c r="U26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56798798083339042</v>
+        <v>0.80142024736162432</v>
       </c>
       <c r="V26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Huntsville:Alabama:0.56798798083339</v>
+        <v>Huntsville:Alabama:0.801420247361624</v>
       </c>
       <c r="W26" t="str">
         <f t="shared" si="2"/>
@@ -6126,11 +6183,11 @@
       </c>
       <c r="U27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90293968022009241</v>
+        <v>0.74762943348515498</v>
       </c>
       <c r="V27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Huntsville:Alabama:0.902939680220092</v>
+        <v>Huntsville:Alabama:0.747629433485155</v>
       </c>
       <c r="W27" t="str">
         <f t="shared" si="2"/>
@@ -6177,11 +6234,11 @@
       </c>
       <c r="U28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35326227470605986</v>
+        <v>0.86165870279051981</v>
       </c>
       <c r="V28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Huntsville:Alabama:0.35326227470606</v>
+        <v>Huntsville:Alabama:0.86165870279052</v>
       </c>
       <c r="W28" t="str">
         <f t="shared" si="2"/>
@@ -6225,11 +6282,11 @@
       </c>
       <c r="U29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61601557495647197</v>
+        <v>0.94692915169195657</v>
       </c>
       <c r="V29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Huntsville:Alabama:0.616015574956472</v>
+        <v>Huntsville:Alabama:0.946929151691957</v>
       </c>
       <c r="W29" t="str">
         <f t="shared" si="2"/>
@@ -6273,11 +6330,11 @@
       </c>
       <c r="U30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56858356129662335</v>
+        <v>0.55032497165228844</v>
       </c>
       <c r="V30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Gadsden:Alabama:0.568583561296623</v>
+        <v>Gadsden:Alabama:0.550324971652288</v>
       </c>
       <c r="W30" t="str">
         <f t="shared" si="2"/>
@@ -6328,21 +6385,24 @@
       <c r="O31" t="s">
         <v>694</v>
       </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
       <c r="U31">
         <f ca="1">RAND()</f>
-        <v>0.82410246959825062</v>
+        <v>0.63575560863850078</v>
       </c>
       <c r="V31" t="str">
         <f ca="1">CONCATENATE(E31,":",F31,":",U31)</f>
-        <v>Gadsden:Alabama:0.824102469598251</v>
+        <v>Gadsden:Alabama:0.635755608638501</v>
       </c>
       <c r="W31" t="str">
         <f t="shared" si="2"/>
-        <v>Mountain View Hospital:Outpatient Services:3001 Scenic Highway::Gadsden:Alabama:35904::Etowah:800-245-3645:::</v>
+        <v>Mountain View Hospital:Outpatient Services:3001 Scenic Highway::Gadsden:Alabama:35904::Etowah:800-245-3645:::0</v>
       </c>
       <c r="X31" t="str">
         <f t="shared" si="3"/>
-        <v>list.add("Mountain View Hospital:Outpatient Services:3001 Scenic Highway::Gadsden:Alabama:35904::Etowah:800-245-3645:::");</v>
+        <v>list.add("Mountain View Hospital:Outpatient Services:3001 Scenic Highway::Gadsden:Alabama:35904::Etowah:800-245-3645:::0");</v>
       </c>
     </row>
     <row r="32" spans="1:91" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6387,11 +6447,11 @@
       </c>
       <c r="U32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27934077606967422</v>
+        <v>0.53858330571974855</v>
       </c>
       <c r="V32" t="str">
         <f t="shared" ref="V32:V53" ca="1" si="4">CONCATENATE(E32,":",F32,":",U32)</f>
-        <v>Gadsden:Alabama:0.279340776069674</v>
+        <v>Gadsden:Alabama:0.538583305719749</v>
       </c>
       <c r="W32" t="str">
         <f t="shared" si="2"/>
@@ -6436,21 +6496,24 @@
       <c r="O33" t="s">
         <v>707</v>
       </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
       <c r="U33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81292253876914167</v>
+        <v>0.74731136173507706</v>
       </c>
       <c r="V33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Fort Payne:Alabama:0.812922538769142</v>
+        <v>Fort Payne:Alabama:0.747311361735077</v>
       </c>
       <c r="W33" t="str">
         <f t="shared" si="2"/>
-        <v>Bridge Inc:Fort Payne Recovery Center:100 7th Street NE::Fort Payne:Alabama:35967::DeKalb:256-845-7767:::</v>
+        <v>Bridge Inc:Fort Payne Recovery Center:100 7th Street NE::Fort Payne:Alabama:35967::DeKalb:256-845-7767:::0</v>
       </c>
       <c r="X33" t="str">
         <f t="shared" si="3"/>
-        <v>list.add("Bridge Inc:Fort Payne Recovery Center:100 7th Street NE::Fort Payne:Alabama:35967::DeKalb:256-845-7767:::");</v>
+        <v>list.add("Bridge Inc:Fort Payne Recovery Center:100 7th Street NE::Fort Payne:Alabama:35967::DeKalb:256-845-7767:::0");</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6486,11 +6549,11 @@
       </c>
       <c r="U34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3276420874975452</v>
+        <v>0.14134147082361759</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Wetumpka:Alabama:0.327642087497545</v>
+        <v>Wetumpka:Alabama:0.141341470823618</v>
       </c>
       <c r="W34" t="str">
         <f t="shared" si="2"/>
@@ -6532,21 +6595,24 @@
       <c r="O35" t="s">
         <v>723</v>
       </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
       <c r="U35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7868547398194311</v>
+        <v>0.47877429846611574</v>
       </c>
       <c r="V35" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Montgomery:Alabama:0.786854739819431</v>
+        <v>Montgomery:Alabama:0.478774298466116</v>
       </c>
       <c r="W35" t="str">
         <f t="shared" si="2"/>
-        <v>Chemical Addictions Program Inc :(CAP)/Pegasus:1151 Air Base Boulevard::Montgomery:Alabama:36108::Montgomery:334-269-2150:::</v>
+        <v>Chemical Addictions Program Inc :(CAP)/Pegasus:1151 Air Base Boulevard::Montgomery:Alabama:36108::Montgomery:334-269-2150:::0</v>
       </c>
       <c r="X35" t="str">
         <f t="shared" si="3"/>
-        <v>list.add("Chemical Addictions Program Inc :(CAP)/Pegasus:1151 Air Base Boulevard::Montgomery:Alabama:36108::Montgomery:334-269-2150:::");</v>
+        <v>list.add("Chemical Addictions Program Inc :(CAP)/Pegasus:1151 Air Base Boulevard::Montgomery:Alabama:36108::Montgomery:334-269-2150:::0");</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6586,21 +6652,24 @@
       <c r="O36" t="s">
         <v>732</v>
       </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
       <c r="U36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26345724586461905</v>
+        <v>0.3691744961251352</v>
       </c>
       <c r="V36" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Montgomery:Alabama:0.263457245864619</v>
+        <v>Montgomery:Alabama:0.369174496125135</v>
       </c>
       <c r="W36" t="str">
         <f t="shared" si="2"/>
-        <v>Lighthouse Counseling Center Inc:Intensive Outpatient Unit:111 Coliseum Boulevard::Montgomery:Alabama:36109:2707:Montgomery:334-286-5980:::</v>
+        <v>Lighthouse Counseling Center Inc:Intensive Outpatient Unit:111 Coliseum Boulevard::Montgomery:Alabama:36109:2707:Montgomery:334-286-5980:::0</v>
       </c>
       <c r="X36" t="str">
         <f t="shared" si="3"/>
-        <v>list.add("Lighthouse Counseling Center Inc:Intensive Outpatient Unit:111 Coliseum Boulevard::Montgomery:Alabama:36109:2707:Montgomery:334-286-5980:::");</v>
+        <v>list.add("Lighthouse Counseling Center Inc:Intensive Outpatient Unit:111 Coliseum Boulevard::Montgomery:Alabama:36109:2707:Montgomery:334-286-5980:::0");</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6631,21 +6700,24 @@
       <c r="O37" t="s">
         <v>738</v>
       </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
       <c r="U37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31023864580285476</v>
+        <v>0.50511234901707203</v>
       </c>
       <c r="V37" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Montgomery:Alabama:0.310238645802855</v>
+        <v>Montgomery:Alabama:0.505112349017072</v>
       </c>
       <c r="W37" t="str">
         <f t="shared" si="2"/>
-        <v>Montgomery Metro Treatment Center::6001 East Shirley Lane::Montgomery:Alabama:36117::Montgomery:334-244-1618:::</v>
+        <v>Montgomery Metro Treatment Center::6001 East Shirley Lane::Montgomery:Alabama:36117::Montgomery:334-244-1618:::0</v>
       </c>
       <c r="X37" t="str">
         <f t="shared" si="3"/>
-        <v>list.add("Montgomery Metro Treatment Center::6001 East Shirley Lane::Montgomery:Alabama:36117::Montgomery:334-244-1618:::");</v>
+        <v>list.add("Montgomery Metro Treatment Center::6001 East Shirley Lane::Montgomery:Alabama:36117::Montgomery:334-244-1618:::0");</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6693,11 +6765,11 @@
       </c>
       <c r="U38">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5252286511628084E-2</v>
+        <v>0.26387882176408395</v>
       </c>
       <c r="V38" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Oxford:Alabama:0.0852522865116281</v>
+        <v>Oxford:Alabama:0.263878821764084</v>
       </c>
       <c r="W38" t="str">
         <f t="shared" si="2"/>
@@ -6744,11 +6816,11 @@
       </c>
       <c r="U39">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8774741889908722E-3</v>
+        <v>0.91900073549162853</v>
       </c>
       <c r="V39" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Oxford:Alabama:0.00587747418899087</v>
+        <v>Oxford:Alabama:0.919000735491629</v>
       </c>
       <c r="W39" t="str">
         <f t="shared" si="2"/>
@@ -6804,11 +6876,11 @@
       </c>
       <c r="U40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47900803611385134</v>
+        <v>0.50237142812625857</v>
       </c>
       <c r="V40" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Oxford:Alabama:0.479008036113851</v>
+        <v>Oxford:Alabama:0.502371428126259</v>
       </c>
       <c r="W40" t="str">
         <f t="shared" si="2"/>
@@ -6864,11 +6936,11 @@
       </c>
       <c r="U41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14682350780959574</v>
+        <v>0.71380517974676727</v>
       </c>
       <c r="V41" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Lineville:Alabama:0.146823507809596</v>
+        <v>Lineville:Alabama:0.713805179746767</v>
       </c>
       <c r="W41" t="str">
         <f t="shared" si="2"/>
@@ -6921,11 +6993,11 @@
       </c>
       <c r="U42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69230735214939487</v>
+        <v>0.28962858984554118</v>
       </c>
       <c r="V42" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Dothan:Alabama:0.692307352149395</v>
+        <v>Dothan:Alabama:0.289628589845541</v>
       </c>
       <c r="W42" t="str">
         <f t="shared" si="2"/>
@@ -6981,11 +7053,11 @@
       </c>
       <c r="U43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57248913985453642</v>
+        <v>0.1643783788459523</v>
       </c>
       <c r="V43" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Fort Rucker:Alabama:0.572489139854536</v>
+        <v>Fort Rucker:Alabama:0.164378378845952</v>
       </c>
       <c r="W43" t="str">
         <f t="shared" si="2"/>
@@ -7029,11 +7101,11 @@
       </c>
       <c r="U44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71997954764698824</v>
+        <v>0.41408067181775965</v>
       </c>
       <c r="V44" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Grand Bay:Alabama:0.719979547646988</v>
+        <v>Grand Bay:Alabama:0.41408067181776</v>
       </c>
       <c r="W44" t="str">
         <f t="shared" si="2"/>
@@ -7080,11 +7152,11 @@
       </c>
       <c r="U45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86893907561581718</v>
+        <v>0.82189489999612686</v>
       </c>
       <c r="V45" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Centre:Alabama:0.868939075615817</v>
+        <v>Centre:Alabama:0.821894899996127</v>
       </c>
       <c r="W45" t="str">
         <f t="shared" si="2"/>
@@ -7137,11 +7209,11 @@
       </c>
       <c r="U46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28927034828612241</v>
+        <v>0.26506099982760867</v>
       </c>
       <c r="V46" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Gadsden:Alabama:0.289270348286122</v>
+        <v>Gadsden:Alabama:0.265060999827609</v>
       </c>
       <c r="W46" t="str">
         <f t="shared" si="2"/>
@@ -7191,11 +7263,11 @@
       </c>
       <c r="U47">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6785163617606531E-2</v>
+        <v>0.8723579123524221</v>
       </c>
       <c r="V47" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Russellville:Alabama:0.0367851636176065</v>
+        <v>Russellville:Alabama:0.872357912352422</v>
       </c>
       <c r="W47" t="str">
         <f t="shared" si="2"/>
@@ -7243,21 +7315,24 @@
       <c r="S48" t="s">
         <v>352</v>
       </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
       <c r="U48">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93355525997636779</v>
+        <v>0.20584356967510886</v>
       </c>
       <c r="V48" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Huntsville:Alabama:0.933555259976368</v>
+        <v>Huntsville:Alabama:0.205843569675109</v>
       </c>
       <c r="W48" t="str">
         <f t="shared" si="2"/>
-        <v>WellStone Inc:Nova Center for Youth and Family:1900 Golf Road SW::Huntsville:Alabama:35802::Madison:256-705-6493::1:</v>
+        <v>WellStone Inc:Nova Center for Youth and Family:1900 Golf Road SW::Huntsville:Alabama:35802::Madison:256-705-6493::1:0</v>
       </c>
       <c r="X48" t="str">
         <f t="shared" si="3"/>
-        <v>list.add("WellStone Inc:Nova Center for Youth and Family:1900 Golf Road SW::Huntsville:Alabama:35802::Madison:256-705-6493::1:");</v>
+        <v>list.add("WellStone Inc:Nova Center for Youth and Family:1900 Golf Road SW::Huntsville:Alabama:35802::Madison:256-705-6493::1:0");</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7299,11 +7374,11 @@
       </c>
       <c r="U49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62352925772007106</v>
+        <v>0.30911883247395033</v>
       </c>
       <c r="V49" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Boaz:Alabama:0.623529257720071</v>
+        <v>Boaz:Alabama:0.30911883247395</v>
       </c>
       <c r="W49" t="str">
         <f t="shared" si="2"/>
@@ -7350,11 +7425,11 @@
       </c>
       <c r="U50">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3969029748587194E-2</v>
+        <v>0.81961120888286743</v>
       </c>
       <c r="V50" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Alexander City:Alabama:0.0539690297485872</v>
+        <v>Alexander City:Alabama:0.819611208882867</v>
       </c>
       <c r="W50" t="str">
         <f t="shared" si="2"/>
@@ -7404,11 +7479,11 @@
       </c>
       <c r="U51">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88290412231639093</v>
+        <v>0.34390046840182753</v>
       </c>
       <c r="V51" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bessemer:Alabama:0.882904122316391</v>
+        <v>Bessemer:Alabama:0.343900468401828</v>
       </c>
       <c r="W51" t="str">
         <f t="shared" si="2"/>
@@ -7455,11 +7530,11 @@
       </c>
       <c r="U52">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9798828428729616E-2</v>
+        <v>0.22956130899109339</v>
       </c>
       <c r="V52" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Calera:Alabama:0.0397988284287296</v>
+        <v>Calera:Alabama:0.229561308991093</v>
       </c>
       <c r="W52" t="str">
         <f t="shared" si="2"/>
@@ -7509,11 +7584,11 @@
       </c>
       <c r="U53">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5745487342822559E-2</v>
+        <v>0.10460264514620099</v>
       </c>
       <c r="V53" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Clanton:Alabama:0.0257454873428226</v>
+        <v>Clanton:Alabama:0.104602645146201</v>
       </c>
       <c r="W53" t="str">
         <f t="shared" si="2"/>
@@ -7560,11 +7635,11 @@
       </c>
       <c r="U54">
         <f ca="1">RAND()</f>
-        <v>0.1027994537878224</v>
+        <v>0.88523100421669632</v>
       </c>
       <c r="V54" t="str">
         <f ca="1">CONCATENATE(E54,":",F54,":",U54)</f>
-        <v>Pell City:Alabama:0.102799453787822</v>
+        <v>Pell City:Alabama:0.885231004216696</v>
       </c>
       <c r="W54" t="str">
         <f t="shared" si="2"/>
@@ -7608,11 +7683,11 @@
       </c>
       <c r="U55">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43855568669050005</v>
+        <v>7.198615724636237E-2</v>
       </c>
       <c r="V55" t="str">
         <f t="shared" ref="V55:V82" ca="1" si="5">CONCATENATE(E55,":",F55,":",U55)</f>
-        <v>Birmingham:Alabama:0.4385556866905</v>
+        <v>Birmingham:Alabama:0.0719861572463624</v>
       </c>
       <c r="W55" t="str">
         <f t="shared" si="2"/>
@@ -7659,11 +7734,11 @@
       </c>
       <c r="U56">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80891242288280463</v>
+        <v>0.66495461172616854</v>
       </c>
       <c r="V56" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Birmingham:Alabama:0.808912422882805</v>
+        <v>Birmingham:Alabama:0.664954611726169</v>
       </c>
       <c r="W56" t="str">
         <f t="shared" si="2"/>
@@ -7702,21 +7777,24 @@
       <c r="O57" t="s">
         <v>894</v>
       </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
       <c r="U57">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8104799729412786</v>
+        <v>0.58066469042794822</v>
       </c>
       <c r="V57" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Birmingham:Alabama:0.810479972941279</v>
+        <v>Birmingham:Alabama:0.580664690427948</v>
       </c>
       <c r="W57" t="str">
         <f t="shared" si="2"/>
-        <v>Tri County Treatment Center::5605 Clifford Circle::Birmingham:Alabama:35210::Jefferson:205-836-3345:::</v>
+        <v>Tri County Treatment Center::5605 Clifford Circle::Birmingham:Alabama:35210::Jefferson:205-836-3345:::0</v>
       </c>
       <c r="X57" t="str">
         <f t="shared" si="3"/>
-        <v>list.add("Tri County Treatment Center::5605 Clifford Circle::Birmingham:Alabama:35210::Jefferson:205-836-3345:::");</v>
+        <v>list.add("Tri County Treatment Center::5605 Clifford Circle::Birmingham:Alabama:35210::Jefferson:205-836-3345:::0");</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7752,11 +7830,11 @@
       </c>
       <c r="U58">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22161936178515462</v>
+        <v>0.11592687372848098</v>
       </c>
       <c r="V58" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Birmingham:Alabama:0.221619361785155</v>
+        <v>Birmingham:Alabama:0.115926873728481</v>
       </c>
       <c r="W58" t="str">
         <f t="shared" si="2"/>
@@ -7818,11 +7896,11 @@
       </c>
       <c r="U59">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1662733458061152E-2</v>
+        <v>0.63925211296889672</v>
       </c>
       <c r="V59" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Birmingham:Alabama:0.0416627334580612</v>
+        <v>Birmingham:Alabama:0.639252112968897</v>
       </c>
       <c r="W59" t="str">
         <f t="shared" si="2"/>
@@ -7872,11 +7950,11 @@
       </c>
       <c r="U60">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28061902659978</v>
+        <v>0.52413869033210481</v>
       </c>
       <c r="V60" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Tuscaloosa:Alabama:0.28061902659978</v>
+        <v>Tuscaloosa:Alabama:0.524138690332105</v>
       </c>
       <c r="W60" t="str">
         <f t="shared" si="2"/>
@@ -7927,21 +8005,24 @@
       <c r="Q61" t="s">
         <v>352</v>
       </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
       <c r="U61">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75991362362752157</v>
+        <v>0.13880913235807191</v>
       </c>
       <c r="V61" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Tuscaloosa:Alabama:0.759913623627522</v>
+        <v>Tuscaloosa:Alabama:0.138809132358072</v>
       </c>
       <c r="W61" t="str">
         <f t="shared" si="2"/>
-        <v>Indian Rivers Mental Health Center:Substance Abuse Services:2209 9th Street::Tuscaloosa:Alabama:35401::Tuscaloosa:205-391-3131 x1206:::</v>
+        <v>Indian Rivers Mental Health Center:Substance Abuse Services:2209 9th Street::Tuscaloosa:Alabama:35401::Tuscaloosa:205-391-3131 x1206:::0</v>
       </c>
       <c r="X61" t="str">
         <f t="shared" si="3"/>
-        <v>list.add("Indian Rivers Mental Health Center:Substance Abuse Services:2209 9th Street::Tuscaloosa:Alabama:35401::Tuscaloosa:205-391-3131 x1206:::");</v>
+        <v>list.add("Indian Rivers Mental Health Center:Substance Abuse Services:2209 9th Street::Tuscaloosa:Alabama:35401::Tuscaloosa:205-391-3131 x1206:::0");</v>
       </c>
     </row>
     <row r="62" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7980,11 +8061,11 @@
       </c>
       <c r="U62">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85283612333741732</v>
+        <v>0.89109218428705206</v>
       </c>
       <c r="V62" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Tuscaloosa:Alabama:0.852836123337417</v>
+        <v>Tuscaloosa:Alabama:0.891092184287052</v>
       </c>
       <c r="W62" t="str">
         <f t="shared" si="2"/>
@@ -8046,11 +8127,11 @@
       </c>
       <c r="U63">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98679802659986304</v>
+        <v>0.11437841618668043</v>
       </c>
       <c r="V63" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Tuscaloosa:Alabama:0.986798026599863</v>
+        <v>Tuscaloosa:Alabama:0.11437841618668</v>
       </c>
       <c r="W63" t="str">
         <f t="shared" si="2"/>
@@ -8103,11 +8184,11 @@
       </c>
       <c r="U64">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88202742401918821</v>
+        <v>0.51109109180010159</v>
       </c>
       <c r="V64" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Tuscaloosa:Alabama:0.882027424019188</v>
+        <v>Tuscaloosa:Alabama:0.511091091800102</v>
       </c>
       <c r="W64" t="str">
         <f t="shared" si="2"/>
@@ -8160,11 +8241,11 @@
       </c>
       <c r="U65">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2384696064936267E-2</v>
+        <v>0.3564677778256965</v>
       </c>
       <c r="V65" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Eutaw:Alabama:0.0923846960649363</v>
+        <v>Eutaw:Alabama:0.356467777825696</v>
       </c>
       <c r="W65" t="str">
         <f t="shared" si="2"/>
@@ -8220,11 +8301,11 @@
       </c>
       <c r="U66">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40196948733735971</v>
+        <v>0.24917241222070463</v>
       </c>
       <c r="V66" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Livingston:Alabama:0.40196948733736</v>
+        <v>Livingston:Alabama:0.249172412220705</v>
       </c>
       <c r="W66" t="str">
         <f t="shared" si="2"/>
@@ -8283,11 +8364,11 @@
       </c>
       <c r="U67">
         <f t="shared" ref="U67:U85" ca="1" si="6">RAND()</f>
-        <v>0.31893333852276129</v>
+        <v>9.4755111330868003E-2</v>
       </c>
       <c r="V67" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Northport:Alabama:0.318933338522761</v>
+        <v>Northport:Alabama:0.094755111330868</v>
       </c>
       <c r="W67" t="str">
         <f t="shared" ref="W67:W83" si="7">CONCATENATE(A67,":",B67,":",C67,":",D67,":",E67,":",F67,":",G67,":",H67,":",I67,":",J67,":",R67,":",S67,":",T67)</f>
@@ -8334,11 +8415,11 @@
       </c>
       <c r="U68">
         <f t="shared" ca="1" si="6"/>
-        <v>4.4009103940384486E-2</v>
+        <v>0.34703870725330521</v>
       </c>
       <c r="V68" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Haleyville:Alabama:0.0440091039403845</v>
+        <v>Haleyville:Alabama:0.347038707253305</v>
       </c>
       <c r="W68" t="str">
         <f t="shared" si="7"/>
@@ -8382,11 +8463,11 @@
       </c>
       <c r="U69">
         <f t="shared" ca="1" si="6"/>
-        <v>0.17542087651249827</v>
+        <v>0.62169847841071491</v>
       </c>
       <c r="V69" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Hamilton:Alabama:0.175420876512498</v>
+        <v>Hamilton:Alabama:0.621698478410715</v>
       </c>
       <c r="W69" t="str">
         <f t="shared" si="7"/>
@@ -8430,11 +8511,11 @@
       </c>
       <c r="U70">
         <f t="shared" ca="1" si="6"/>
-        <v>0.89333419247338797</v>
+        <v>9.9772352323514113E-2</v>
       </c>
       <c r="V70" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Decatur:Alabama:0.893334192473388</v>
+        <v>Decatur:Alabama:0.0997723523235141</v>
       </c>
       <c r="W70" t="str">
         <f t="shared" si="7"/>
@@ -8478,11 +8559,11 @@
       </c>
       <c r="U71">
         <f t="shared" ca="1" si="6"/>
-        <v>0.38122258781168439</v>
+        <v>0.98019377713041322</v>
       </c>
       <c r="V71" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Athens:Alabama:0.381222587811684</v>
+        <v>Athens:Alabama:0.980193777130413</v>
       </c>
       <c r="W71" t="str">
         <f t="shared" si="7"/>
@@ -8535,11 +8616,11 @@
       </c>
       <c r="U72">
         <f t="shared" ca="1" si="6"/>
-        <v>0.35393501841223707</v>
+        <v>0.91296273084763635</v>
       </c>
       <c r="V72" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Florence:Alabama:0.353935018412237</v>
+        <v>Florence:Alabama:0.912962730847636</v>
       </c>
       <c r="W72" t="str">
         <f t="shared" si="7"/>
@@ -8583,11 +8664,11 @@
       </c>
       <c r="U73">
         <f t="shared" ca="1" si="6"/>
-        <v>0.46174526073927269</v>
+        <v>0.853435497972028</v>
       </c>
       <c r="V73" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Rogersville:Alabama:0.461745260739273</v>
+        <v>Rogersville:Alabama:0.853435497972028</v>
       </c>
       <c r="W73" t="str">
         <f t="shared" si="7"/>
@@ -8631,11 +8712,11 @@
       </c>
       <c r="U74">
         <f t="shared" ca="1" si="6"/>
-        <v>0.62513845429285642</v>
+        <v>1.9140014199553468E-3</v>
       </c>
       <c r="V74" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Sheffield:Alabama:0.625138454292856</v>
+        <v>Sheffield:Alabama:0.00191400141995535</v>
       </c>
       <c r="W74" t="str">
         <f t="shared" si="7"/>
@@ -8682,11 +8763,11 @@
       </c>
       <c r="U75">
         <f t="shared" ca="1" si="6"/>
-        <v>0.24833380049288978</v>
+        <v>0.58282599118850387</v>
       </c>
       <c r="V75" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Madison:Alabama:0.24833380049289</v>
+        <v>Madison:Alabama:0.582825991188504</v>
       </c>
       <c r="W75" t="str">
         <f t="shared" si="7"/>
@@ -8730,11 +8811,11 @@
       </c>
       <c r="U76">
         <f t="shared" ca="1" si="6"/>
-        <v>0.93006617873020048</v>
+        <v>0.49526400561711525</v>
       </c>
       <c r="V76" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Scottsboro:Alabama:0.9300661787302</v>
+        <v>Scottsboro:Alabama:0.495264005617115</v>
       </c>
       <c r="W76" t="str">
         <f t="shared" si="7"/>
@@ -8778,11 +8859,11 @@
       </c>
       <c r="U77">
         <f t="shared" ca="1" si="6"/>
-        <v>0.83719990332060235</v>
+        <v>3.8388139644331631E-2</v>
       </c>
       <c r="V77" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Stevenson:Alabama:0.837199903320602</v>
+        <v>Stevenson:Alabama:0.0383881396443316</v>
       </c>
       <c r="W77" t="str">
         <f t="shared" si="7"/>
@@ -8832,11 +8913,11 @@
       </c>
       <c r="U78">
         <f t="shared" ca="1" si="6"/>
-        <v>0.62531866352451793</v>
+        <v>0.91898247577296643</v>
       </c>
       <c r="V78" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Huntsville:Alabama:0.625318663524518</v>
+        <v>Huntsville:Alabama:0.918982475772966</v>
       </c>
       <c r="W78" t="str">
         <f t="shared" si="7"/>
@@ -8898,11 +8979,11 @@
       </c>
       <c r="U79">
         <f t="shared" ca="1" si="6"/>
-        <v>0.13590353271184885</v>
+        <v>0.89614520785450813</v>
       </c>
       <c r="V79" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Huntsville:Alabama:0.135903532711849</v>
+        <v>Huntsville:Alabama:0.896145207854508</v>
       </c>
       <c r="W79" t="str">
         <f t="shared" si="7"/>
@@ -8955,11 +9036,11 @@
       </c>
       <c r="U80">
         <f t="shared" ca="1" si="6"/>
-        <v>0.39517761721544531</v>
+        <v>0.58200396556227374</v>
       </c>
       <c r="V80" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Huntsville:Alabama:0.395177617215445</v>
+        <v>Huntsville:Alabama:0.582003965562274</v>
       </c>
       <c r="W80" t="str">
         <f t="shared" si="7"/>
@@ -9003,11 +9084,11 @@
       </c>
       <c r="U81">
         <f t="shared" ca="1" si="6"/>
-        <v>0.76624172301868909</v>
+        <v>0.76963370238343942</v>
       </c>
       <c r="V81" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Gadsden:Alabama:0.766241723018689</v>
+        <v>Gadsden:Alabama:0.769633702383439</v>
       </c>
       <c r="W81" t="str">
         <f t="shared" si="7"/>
@@ -9054,11 +9135,11 @@
       </c>
       <c r="U82">
         <f t="shared" ca="1" si="6"/>
-        <v>0.73378345379948751</v>
+        <v>0.31403403441886735</v>
       </c>
       <c r="V82" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Attalla:Alabama:0.733783453799488</v>
+        <v>Attalla:Alabama:0.314034034418867</v>
       </c>
       <c r="W82" t="str">
         <f t="shared" si="7"/>
@@ -9102,11 +9183,11 @@
       </c>
       <c r="U83">
         <f ca="1">RAND()</f>
-        <v>0.24590646263300675</v>
+        <v>0.25402764758023499</v>
       </c>
       <c r="V83" t="str">
         <f ca="1">CONCATENATE(E83,":",F83,":",U83)</f>
-        <v>Attalla:Alabama:0.245906462633007</v>
+        <v>Attalla:Alabama:0.254027647580235</v>
       </c>
       <c r="W83" t="str">
         <f t="shared" si="7"/>
@@ -9150,11 +9231,11 @@
       </c>
       <c r="U84">
         <f t="shared" ca="1" si="6"/>
-        <v>0.88597063868958492</v>
+        <v>0.9471253768001473</v>
       </c>
       <c r="V84" t="str">
         <f t="shared" ref="V84:V85" ca="1" si="9">CONCATENATE(E84,":",F84,":",U84)</f>
-        <v>Attalla:Alabama:0.885970638689585</v>
+        <v>Attalla:Alabama:0.947125376800147</v>
       </c>
       <c r="W84" t="str">
         <f>CONCATENATE(A84,":",B84,":",C84,":",D84,":",E84,":",F84,":",G84,":",H84,":",I84,":",J84,":",R84,":",S84,":",T84)</f>
@@ -9198,11 +9279,11 @@
       </c>
       <c r="U85">
         <f t="shared" ca="1" si="6"/>
-        <v>0.16012346358914342</v>
+        <v>0.87080238864500081</v>
       </c>
       <c r="V85" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Centre:Alabama:0.160123463589143</v>
+        <v>Centre:Alabama:0.870802388645001</v>
       </c>
       <c r="W85" t="str">
         <f t="shared" ref="W85:W118" si="10">CONCATENATE(A85,":",B85,":",C85,":",D85,":",E85,":",F85,":",G85,":",H85,":",I85,":",J85,":",R85,":",S85,":",T85)</f>
@@ -9249,11 +9330,11 @@
       </c>
       <c r="U86">
         <f ca="1">RAND()</f>
-        <v>0.47473250670595435</v>
+        <v>0.18910593580439128</v>
       </c>
       <c r="V86" t="str">
         <f ca="1">CONCATENATE(E86,":",F86,":",U86)</f>
-        <v>Fort Payne:Alabama:0.474732506705954</v>
+        <v>Fort Payne:Alabama:0.189105935804391</v>
       </c>
       <c r="W86" t="str">
         <f t="shared" si="10"/>
@@ -9297,11 +9378,11 @@
       </c>
       <c r="U87">
         <f t="shared" ref="U87:U118" ca="1" si="11">RAND()</f>
-        <v>0.61015086687449738</v>
+        <v>0.42907086249258997</v>
       </c>
       <c r="V87" t="str">
         <f t="shared" ref="V87:V114" ca="1" si="12">CONCATENATE(E87,":",F87,":",U87)</f>
-        <v>Fort Payne:Alabama:0.610150866874497</v>
+        <v>Fort Payne:Alabama:0.42907086249259</v>
       </c>
       <c r="W87" t="str">
         <f t="shared" si="10"/>
@@ -9345,11 +9426,11 @@
       </c>
       <c r="U88">
         <f t="shared" ca="1" si="11"/>
-        <v>0.96026255453857789</v>
+        <v>0.61585291808080578</v>
       </c>
       <c r="V88" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Guntersville:Alabama:0.960262554538578</v>
+        <v>Guntersville:Alabama:0.615852918080806</v>
       </c>
       <c r="W88" t="str">
         <f t="shared" si="10"/>
@@ -9399,11 +9480,11 @@
       </c>
       <c r="U89">
         <f t="shared" ca="1" si="11"/>
-        <v>0.30086593760147928</v>
+        <v>0.28014672361686677</v>
       </c>
       <c r="V89" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Guntersville:Alabama:0.300865937601479</v>
+        <v>Guntersville:Alabama:0.280146723616867</v>
       </c>
       <c r="W89" t="str">
         <f t="shared" si="10"/>
@@ -9459,11 +9540,11 @@
       </c>
       <c r="U90">
         <f t="shared" ca="1" si="11"/>
-        <v>0.83842121662800184</v>
+        <v>0.71016007794656766</v>
       </c>
       <c r="V90" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Eufaula:Alabama:0.838421216628002</v>
+        <v>Eufaula:Alabama:0.710160077946568</v>
       </c>
       <c r="W90" t="str">
         <f t="shared" si="10"/>
@@ -9513,18 +9594,18 @@
       </c>
       <c r="U91">
         <f t="shared" ca="1" si="11"/>
-        <v>0.10713351022193141</v>
+        <v>0.59531175322882435</v>
       </c>
       <c r="V91" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Troy:Alabama:0.107133510221931</v>
+        <v>Troy:Alabama:0.595311753228824</v>
       </c>
       <c r="W91" t="str">
         <f t="shared" si="10"/>
         <v>East Central Mental Health Inc:Substance Abuse Program:200 Cherry Street::Troy:Alabama:36081::Pike:334-566-6022:::1</v>
       </c>
       <c r="X91" t="str">
-        <f t="shared" ref="X91:X119" si="13">CONCATENATE("list.add(""",W91,""");")</f>
+        <f t="shared" ref="X91:X118" si="13">CONCATENATE("list.add(""",W91,""");")</f>
         <v>list.add("East Central Mental Health Inc:Substance Abuse Program:200 Cherry Street::Troy:Alabama:36081::Pike:334-566-6022:::1");</v>
       </c>
     </row>
@@ -9573,11 +9654,11 @@
       </c>
       <c r="U92">
         <f t="shared" ca="1" si="11"/>
-        <v>4.172529994122709E-2</v>
+        <v>6.5506235284510939E-2</v>
       </c>
       <c r="V92" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Tuskegee:Alabama:0.0417252999412271</v>
+        <v>Tuskegee:Alabama:0.0655062352845109</v>
       </c>
       <c r="W92" t="str">
         <f t="shared" si="10"/>
@@ -9622,21 +9703,24 @@
       <c r="O93" t="s">
         <v>1138</v>
       </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
       <c r="U93">
         <f t="shared" ca="1" si="11"/>
-        <v>0.56883746445330707</v>
+        <v>0.8009478070105388</v>
       </c>
       <c r="V93" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Montgomery:Alabama:0.568837464453307</v>
+        <v>Montgomery:Alabama:0.800947807010539</v>
       </c>
       <c r="W93" t="str">
         <f t="shared" si="10"/>
-        <v>Chemical Addictions Program Inc:Capital Recovery Center (CRC):1155 Air Base Boulevard::Montgomery:Alabama:36108::Montgomery:334-323-3214:::</v>
+        <v>Chemical Addictions Program Inc:Capital Recovery Center (CRC):1155 Air Base Boulevard::Montgomery:Alabama:36108::Montgomery:334-323-3214:::0</v>
       </c>
       <c r="X93" t="str">
         <f t="shared" si="13"/>
-        <v>list.add("Chemical Addictions Program Inc:Capital Recovery Center (CRC):1155 Air Base Boulevard::Montgomery:Alabama:36108::Montgomery:334-323-3214:::");</v>
+        <v>list.add("Chemical Addictions Program Inc:Capital Recovery Center (CRC):1155 Air Base Boulevard::Montgomery:Alabama:36108::Montgomery:334-323-3214:::0");</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9678,11 +9762,11 @@
       </c>
       <c r="U94">
         <f t="shared" ca="1" si="11"/>
-        <v>0.61852881483720978</v>
+        <v>0.68559233652624041</v>
       </c>
       <c r="V94" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Montgomery:Alabama:0.61852881483721</v>
+        <v>Montgomery:Alabama:0.68559233652624</v>
       </c>
       <c r="W94" t="str">
         <f t="shared" si="10"/>
@@ -9735,11 +9819,11 @@
       </c>
       <c r="U95">
         <f t="shared" ca="1" si="11"/>
-        <v>0.77547097038753698</v>
+        <v>0.8851350202124767</v>
       </c>
       <c r="V95" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Montgomery:Alabama:0.775470970387537</v>
+        <v>Montgomery:Alabama:0.885135020212477</v>
       </c>
       <c r="W95" t="str">
         <f t="shared" si="10"/>
@@ -9783,11 +9867,11 @@
       </c>
       <c r="U96">
         <f t="shared" ca="1" si="11"/>
-        <v>0.97289020426060069</v>
+        <v>0.11581111718592074</v>
       </c>
       <c r="V96" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Anniston:Alabama:0.972890204260601</v>
+        <v>Anniston:Alabama:0.115811117185921</v>
       </c>
       <c r="W96" t="str">
         <f t="shared" si="10"/>
@@ -9843,11 +9927,11 @@
       </c>
       <c r="U97">
         <f t="shared" ca="1" si="11"/>
-        <v>0.96885757615850809</v>
+        <v>0.35816732399133133</v>
       </c>
       <c r="V97" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Anniston:Alabama:0.968857576158508</v>
+        <v>Anniston:Alabama:0.358167323991331</v>
       </c>
       <c r="W97" t="str">
         <f t="shared" si="10"/>
@@ -9894,11 +9978,11 @@
       </c>
       <c r="U98">
         <f t="shared" ca="1" si="11"/>
-        <v>0.52932915966789551</v>
+        <v>0.65593917338186392</v>
       </c>
       <c r="V98" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Jacksonville:Alabama:0.529329159667896</v>
+        <v>Jacksonville:Alabama:0.655939173381864</v>
       </c>
       <c r="W98" t="str">
         <f t="shared" si="10"/>
@@ -9954,11 +10038,11 @@
       </c>
       <c r="U99">
         <f t="shared" ca="1" si="11"/>
-        <v>0.8121432367741116</v>
+        <v>0.97697020105818222</v>
       </c>
       <c r="V99" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Dothan:Alabama:0.812143236774112</v>
+        <v>Dothan:Alabama:0.976970201058182</v>
       </c>
       <c r="W99" t="str">
         <f t="shared" si="10"/>
@@ -10011,11 +10095,11 @@
       </c>
       <c r="U100">
         <f t="shared" ca="1" si="11"/>
-        <v>0.85152357783126509</v>
+        <v>0.24020441011156324</v>
       </c>
       <c r="V100" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Dothan:Alabama:0.851523577831265</v>
+        <v>Dothan:Alabama:0.240204410111563</v>
       </c>
       <c r="W100" t="str">
         <f t="shared" si="10"/>
@@ -10071,11 +10155,11 @@
       </c>
       <c r="U101">
         <f t="shared" ca="1" si="11"/>
-        <v>0.10510867929941969</v>
+        <v>0.69422362251537839</v>
       </c>
       <c r="V101" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Abbeville:Alabama:0.10510867929942</v>
+        <v>Abbeville:Alabama:0.694223622515378</v>
       </c>
       <c r="W101" t="str">
         <f t="shared" si="10"/>
@@ -10134,11 +10218,11 @@
       </c>
       <c r="U102">
         <f t="shared" ca="1" si="11"/>
-        <v>0.96515056795642695</v>
+        <v>0.94046843490691223</v>
       </c>
       <c r="V102" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Geneva:Alabama:0.965150567956427</v>
+        <v>Geneva:Alabama:0.940468434906912</v>
       </c>
       <c r="W102" t="str">
         <f t="shared" si="10"/>
@@ -10185,11 +10269,11 @@
       </c>
       <c r="U103">
         <f t="shared" ca="1" si="11"/>
-        <v>0.86916267378551781</v>
+        <v>0.35675755547879473</v>
       </c>
       <c r="V103" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Newton:Alabama:0.869162673785518</v>
+        <v>Newton:Alabama:0.356757555478795</v>
       </c>
       <c r="W103" t="str">
         <f t="shared" si="10"/>
@@ -10239,11 +10323,11 @@
       </c>
       <c r="U104">
         <f t="shared" ca="1" si="11"/>
-        <v>0.57812986012533474</v>
+        <v>0.3318354207037767</v>
       </c>
       <c r="V104" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Ozark:Alabama:0.578129860125335</v>
+        <v>Ozark:Alabama:0.331835420703777</v>
       </c>
       <c r="W104" t="str">
         <f t="shared" si="10"/>
@@ -10287,11 +10371,11 @@
       </c>
       <c r="U105">
         <f t="shared" ca="1" si="11"/>
-        <v>0.43198004963865022</v>
+        <v>0.34468972938996056</v>
       </c>
       <c r="V105" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spanish Fort:Alabama:0.43198004963865</v>
+        <v>Spanish Fort:Alabama:0.344689729389961</v>
       </c>
       <c r="W105" t="str">
         <f t="shared" si="10"/>
@@ -10344,11 +10428,11 @@
       </c>
       <c r="U106">
         <f t="shared" ca="1" si="11"/>
-        <v>0.50958590958339467</v>
+        <v>0.31152708372797333</v>
       </c>
       <c r="V106" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Mobile:Alabama:0.509585909583395</v>
+        <v>Mobile:Alabama:0.311527083727973</v>
       </c>
       <c r="W106" t="str">
         <f t="shared" si="10"/>
@@ -10396,21 +10480,24 @@
       <c r="R107" t="s">
         <v>352</v>
       </c>
+      <c r="T107">
+        <v>0</v>
+      </c>
       <c r="U107">
         <f t="shared" ca="1" si="11"/>
-        <v>2.0296363223717306E-2</v>
+        <v>0.40622404379917321</v>
       </c>
       <c r="V107" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Mobile:Alabama:0.0202963632237173</v>
+        <v>Mobile:Alabama:0.406224043799173</v>
       </c>
       <c r="W107" t="str">
         <f t="shared" si="10"/>
-        <v>Mobile Metro Treatment Center:New Season:1924 Dauphin Island Parkway:Suite C:Mobile:Alabama:36605::Mobile:251-476-5733:1::</v>
+        <v>Mobile Metro Treatment Center:New Season:1924 Dauphin Island Parkway:Suite C:Mobile:Alabama:36605::Mobile:251-476-5733:1::0</v>
       </c>
       <c r="X107" t="str">
         <f t="shared" si="13"/>
-        <v>list.add("Mobile Metro Treatment Center:New Season:1924 Dauphin Island Parkway:Suite C:Mobile:Alabama:36605::Mobile:251-476-5733:1::");</v>
+        <v>list.add("Mobile Metro Treatment Center:New Season:1924 Dauphin Island Parkway:Suite C:Mobile:Alabama:36605::Mobile:251-476-5733:1::0");</v>
       </c>
     </row>
     <row r="108" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10455,11 +10542,11 @@
       </c>
       <c r="U108">
         <f t="shared" ca="1" si="11"/>
-        <v>0.35397912752269323</v>
+        <v>0.85644223644477979</v>
       </c>
       <c r="V108" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Mobile:Alabama:0.353979127522693</v>
+        <v>Mobile:Alabama:0.85644223644478</v>
       </c>
       <c r="W108" t="str">
         <f t="shared" si="10"/>
@@ -10503,11 +10590,11 @@
       </c>
       <c r="U109">
         <f t="shared" ca="1" si="11"/>
-        <v>0.20625353929670198</v>
+        <v>0.21526275068176948</v>
       </c>
       <c r="V109" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Mobile:Alabama:0.206253539296702</v>
+        <v>Mobile:Alabama:0.215262750681769</v>
       </c>
       <c r="W109" t="str">
         <f t="shared" si="10"/>
@@ -10549,21 +10636,24 @@
       <c r="R110" t="s">
         <v>352</v>
       </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
       <c r="U110">
         <f t="shared" ca="1" si="11"/>
-        <v>0.68110471215661883</v>
+        <v>0.8444663261571399</v>
       </c>
       <c r="V110" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Mobile:Alabama:0.681104712156619</v>
+        <v>Mobile:Alabama:0.84446632615714</v>
       </c>
       <c r="W110" t="str">
         <f t="shared" si="10"/>
-        <v>Franklin Primary Health Center Inc::510 South Wilson Avenue::Mobile:Alabama:36610::Mobile:251-434-8195:1::</v>
+        <v>Franklin Primary Health Center Inc::510 South Wilson Avenue::Mobile:Alabama:36610::Mobile:251-434-8195:1::0</v>
       </c>
       <c r="X110" t="str">
         <f t="shared" si="13"/>
-        <v>list.add("Franklin Primary Health Center Inc::510 South Wilson Avenue::Mobile:Alabama:36610::Mobile:251-434-8195:1::");</v>
+        <v>list.add("Franklin Primary Health Center Inc::510 South Wilson Avenue::Mobile:Alabama:36610::Mobile:251-434-8195:1::0");</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10602,11 +10692,11 @@
       </c>
       <c r="U111">
         <f t="shared" ca="1" si="11"/>
-        <v>0.75586501507596815</v>
+        <v>0.92093151895237813</v>
       </c>
       <c r="V111" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Mobile:Alabama:0.755865015075968</v>
+        <v>Mobile:Alabama:0.920931518952378</v>
       </c>
       <c r="W111" t="str">
         <f t="shared" si="10"/>
@@ -10668,11 +10758,11 @@
       </c>
       <c r="U112">
         <f t="shared" ca="1" si="11"/>
-        <v>0.92492672695480338</v>
+        <v>0.33902467754702215</v>
       </c>
       <c r="V112" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Mobile:Alabama:0.924926726954803</v>
+        <v>Mobile:Alabama:0.339024677547022</v>
       </c>
       <c r="W112" t="str">
         <f t="shared" si="10"/>
@@ -10734,11 +10824,11 @@
       </c>
       <c r="U113">
         <f t="shared" ca="1" si="11"/>
-        <v>0.85175284103406979</v>
+        <v>0.71058910048290758</v>
       </c>
       <c r="V113" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Mobile:Alabama:0.85175284103407</v>
+        <v>Mobile:Alabama:0.710589100482908</v>
       </c>
       <c r="W113" t="str">
         <f t="shared" si="10"/>
@@ -10785,11 +10875,11 @@
       </c>
       <c r="U114">
         <f t="shared" ca="1" si="11"/>
-        <v>0.63003429552326318</v>
+        <v>0.651703951327117</v>
       </c>
       <c r="V114" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Mobile:Alabama:0.630034295523263</v>
+        <v>Mobile:Alabama:0.651703951327117</v>
       </c>
       <c r="W114" t="str">
         <f t="shared" si="10"/>
@@ -10842,11 +10932,11 @@
       </c>
       <c r="U115">
         <f ca="1">RAND()</f>
-        <v>0.20731501246067197</v>
+        <v>0.27232703474414155</v>
       </c>
       <c r="V115" t="str">
         <f ca="1">CONCATENATE(E115,":",F115,":",U115)</f>
-        <v>Opelika:Alabama:0.207315012460672</v>
+        <v>Opelika:Alabama:0.272327034744142</v>
       </c>
       <c r="W115" t="str">
         <f t="shared" si="10"/>
@@ -10888,21 +10978,24 @@
       <c r="S116" t="s">
         <v>352</v>
       </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
       <c r="U116">
         <f t="shared" ca="1" si="11"/>
-        <v>0.53607668596666203</v>
+        <v>0.85817258743667413</v>
       </c>
       <c r="V116" t="str">
         <f t="shared" ref="V116:V118" ca="1" si="14">CONCATENATE(E116,":",F116,":",U116)</f>
-        <v>Phenix City:Alabama:0.536076685966662</v>
+        <v>Phenix City:Alabama:0.858172587436674</v>
       </c>
       <c r="W116" t="str">
         <f t="shared" si="10"/>
-        <v>TEARS Inc::1011 South Railroad Street::Phenix City:Alabama:36867::Russell:334-291-6363::1:</v>
+        <v>TEARS Inc::1011 South Railroad Street::Phenix City:Alabama:36867::Russell:334-291-6363::1:0</v>
       </c>
       <c r="X116" t="str">
         <f t="shared" si="13"/>
-        <v>list.add("TEARS Inc::1011 South Railroad Street::Phenix City:Alabama:36867::Russell:334-291-6363::1:");</v>
+        <v>list.add("TEARS Inc::1011 South Railroad Street::Phenix City:Alabama:36867::Russell:334-291-6363::1:0");</v>
       </c>
     </row>
     <row r="117" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10950,11 +11043,11 @@
       </c>
       <c r="U117">
         <f t="shared" ca="1" si="11"/>
-        <v>0.83677941772134012</v>
+        <v>0.75328423326080174</v>
       </c>
       <c r="V117" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Phenix City:Alabama:0.83677941772134</v>
+        <v>Phenix City:Alabama:0.753284233260802</v>
       </c>
       <c r="W117" t="str">
         <f t="shared" si="10"/>
@@ -11004,11 +11097,11 @@
       </c>
       <c r="U118">
         <f t="shared" ca="1" si="11"/>
-        <v>0.28107638266990287</v>
+        <v>0.50945149006794999</v>
       </c>
       <c r="V118" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Butler:Alabama:0.281076382669903</v>
+        <v>Butler:Alabama:0.50945149006795</v>
       </c>
       <c r="W118" t="str">
         <f t="shared" si="10"/>
@@ -11902,6 +11995,7 @@
     <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <autoFilter ref="A1:X118"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
